--- a/数据整理/stocks/A股/科创板/688223-晶科能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688223-晶科能源.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4528,7 +4529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,17 +4540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4559,13 +4580,4245 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8830</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1804</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1491</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1198</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0264</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6412</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5346</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4688</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4637</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3870</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013852</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>106</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>29.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688223-晶科能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688223-晶科能源.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,4074 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1496</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.42</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040035</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安逆向策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>58.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8280</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>270006</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发策略优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4946</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>163418</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全合兴两年封闭运作混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>78.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7732</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001156</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信新能源汽车主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>39.92</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4611</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009864</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商景气优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.3077</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>163411</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>兴全精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>41.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9647</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>398021</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中海能源策略混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>23.96</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8530</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001468</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发改革先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>76.65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8492</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7758</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012390</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧产业前瞻混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>19.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7719</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000126</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商安润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>72.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7474</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>540006</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5752</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>960000</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘股票H</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>17.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5752</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000601</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝创新优选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.56</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5664</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011450</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商企业优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>14.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5585</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011357</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞品质成长混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>25.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>76.67</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5534</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005630</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华安研究精选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>13.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5194</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010417</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商盛洋3个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4234</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>217005</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商先锋混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3806</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009865</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商景气优选股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3715</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010166</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商兴和优选1年持有期混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3474</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>501095</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>79.30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3436</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3253</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3148</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.73</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3132</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009990</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华泰柏瑞品质优选混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>13.12</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>76.98</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2900</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001933</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华商新兴活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.28</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2888</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006364</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商丰韵混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2782</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2606</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008075</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>招商核心优选股票A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2520</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005119</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>银华智荟内在价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2424</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001749</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商中国机遇股票</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2280</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004784</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>招商稳健优选股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>85.49</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2107</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>88.22</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.2053</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>900013</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中信证券品质生活混合型集合资产管理计划A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1771</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>008009</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华商高端装备制造股票</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1685</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>007731</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1661</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>011142</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>创金合信新材料新能源股票A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1616</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>010114</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华宝新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>83.47</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1242</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>010122</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华泰柏瑞优势领航混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>73.72</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1236</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>013513</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>长安先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1044</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>001173</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0982</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>012198</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>国金核心资产一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>73.57</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0982</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>560002</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>益民红利成长混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0905</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>762001</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>国金国鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0850</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>630005</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华商动态阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>62.31</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0839</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>217020</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>招商安达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>80.47</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0830</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007074</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>国寿安保新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0747</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>001097</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极优选股票</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>86.06</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002103</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>招商康泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>39.68</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0661</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>009991</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>华泰柏瑞品质优选混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>76.98</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>010293</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>华商量化优质精选混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>76.48</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0585</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>240017</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>华宝新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>81.86</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0577</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>001815</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华泰柏瑞激励动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>39.06</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0569</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>006365</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>招商丰韵混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0533</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>011143</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>创金合信新材料新能源股票C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0527</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>88.85</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>010944</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>招商商业模式优选混合A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>011603</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>兴业高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>76.40</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>009853</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中加优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0429</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>89.30</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>012391</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>中欧产业前瞻混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>014141</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>大成新能源混合A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>012445</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>华富新能源股票型发起式证券投资基金</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>000538</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>76.41</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>162717</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>广发再融资主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>79.18</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>009380</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>富安达科技领航混合</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>580007</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>东吴安享量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>73.95</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>008518</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>弘毅远方经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>81.65</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>011358</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>华泰柏瑞品质成长混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>76.67</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>012199</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>国金核心资产一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>73.57</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>000530</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>200001</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>长城久恒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>009762</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>国金国鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>005331</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>益民优势安享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>41.68</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>008526</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>83.70</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>000410</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>益民服务领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>81.02</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>011451</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>招商企业优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>011604</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>兴业高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>76.40</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>013514</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>长安先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>91.34</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>008076</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>招商核心优选股票C</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>002082</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>华泰柏瑞激励动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>39.06</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>003182</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>华富弘鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>22.56</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>010427</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>009854</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>中加优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>002053</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>76.41</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>009855</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>中加新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>010428</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合C</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>010123</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>华泰柏瑞优势领航混合C</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>73.72</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>007732</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合C</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>001174</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>002417</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>招商丰盛稳定增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>001864</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>中海魅力长三角灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>74.64</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>003183</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>华富弘鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>22.56</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>008527</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业精选混合C</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>83.70</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>009856</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>中加新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>010945</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>招商商业模式优选混合C</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>004917</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合A</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>79.01</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>001659</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>富安达新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>004918</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合C</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>79.01</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>900133</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>中信证券品质生活混合型集合资产管理计划C</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>014142</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>大成新能源混合C</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>010670</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>兴全合兴两年封闭运作混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>89.34</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>106</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -8765,64 +4756,4073 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>110</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.42</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>106</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.55</v>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7732</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7474</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5752</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5752</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5585</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007074</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>73.57</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>41.68</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688223-晶科能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688223-晶科能源.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="D2" t="n">
-        <v>41.42</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>110</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>106</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>29.55</v>
       </c>
     </row>
@@ -515,6 +532,7198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H189"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>293.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.6277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5036</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8110</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>123.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安研究智选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0987</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3731</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2189</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1900</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0418</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0221</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9594</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8383</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8239</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7524</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6504</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013661</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安研究领航混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6389</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城优化升级混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5807</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013852</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5694</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5501</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5224</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013851</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015322</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4970</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4823</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4598</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4272</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3311</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014726</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011664</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011693</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安研究智选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014878</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014575</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013662</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安研究领航混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013872</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商能源转型混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013871</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商能源转型混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014574</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015398</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014879</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>015850</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014937</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>015193</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合D</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>016402</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4750,7 +11959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688223-晶科能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688223-晶科能源.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D2" t="n">
-        <v>72.58</v>
+        <v>51.43</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="D3" t="n">
-        <v>41.42</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>106</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>29.55</v>
       </c>
     </row>
@@ -532,6 +549,5264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H138"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8063</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011692</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安研究智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2407</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015322</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7464</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002083</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6747</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6161</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013852</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6115</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013851</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5603</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012688</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002084</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4807</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014726</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发成长动力三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3991</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011663</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3637</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3349</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华乐享混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013661</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安研究领航混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发成长新动能混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发成长新动能混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016635</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国联安气候变化责任投资混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014575</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011664</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014878</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013872</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商能源转型混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012689</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011693</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安研究智选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015687</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华乐享混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013871</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商能源转型混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014574</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013929</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013662</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安研究领航混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014879</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>77.52</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015398</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013930</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>015641</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>银华数字经济股票A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>015642</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>银华数字经济股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>016386</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014990</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>016387</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>017494</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7723,7 +12998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11959,7 +17234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
